--- a/RuleBook.xlsx
+++ b/RuleBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybensoussan/Desktop/CheckPointHackaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D3C6D-0D53-1544-9C8C-AF7091744C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6948BDF6-B8A1-1A4F-A4B2-C33BC917CDF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="4260" windowWidth="26440" windowHeight="15440" xr2:uid="{3558EBDB-5F64-AE47-9F60-77ABDA9760E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>RULES</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>one outlier</t>
+  </si>
+  <si>
+    <t>dst_ip == '70.115.0.9'</t>
+  </si>
+  <si>
+    <t>dst_ip == '10.200.105.202'</t>
+  </si>
+  <si>
+    <t>received_bytes &gt; 10</t>
+  </si>
+  <si>
+    <t>where src_ip &amp; dst_ip is malware in train data</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,7 +196,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03FB288-5EC4-6B4C-AB98-E3CD945D70F5}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +545,7 @@
       </c>
       <c r="H2">
         <f>SUM(F5:F18)</f>
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -542,7 +554,7 @@
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
-        <v>0.81188118811881194</v>
+        <v>0.96534653465346532</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -687,39 +699,89 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>F13/$H$1</f>
+        <v>3.4653465346534656E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>F14/$H$1</f>
+        <v>4.9504950495049506E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
